--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\automation tranning vmo (07 to 10-2023)\tiennt-vmo-nopcommerce\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -30,22 +30,22 @@
     <t>Password</t>
   </si>
   <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>Expected Message</t>
+  </si>
+  <si>
+    <t>hihaha@abc.def</t>
+  </si>
+  <si>
+    <t>Abcd@1234</t>
+  </si>
+  <si>
+    <t>No customer account found</t>
+  </si>
+  <si>
+    <t>The credentials provided are incorrect</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
   </si>
 </sst>
 </file>
@@ -306,19 +306,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -329,77 +330,80 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
